--- a/tests/advanced/randomized_tests/b15.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b15.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>338</v>
       </c>
       <c r="D2">
-        <v>338</v>
-      </c>
-      <c r="E2">
-        <v>338</v>
-      </c>
-      <c r="F2">
-        <v>338</v>
-      </c>
-      <c r="G2">
-        <v>338</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D2">
-        <v>0.0002387175336480141</v>
+        <v>0.01050856290385127</v>
       </c>
       <c r="E2">
-        <v>0.116445688996464</v>
+        <v>0.1026463052257895</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="G2">
-        <v>0.006972394417971373</v>
+        <v>0.008229962084442377</v>
       </c>
       <c r="H2">
-        <v>0.009754863567650318</v>
+        <v>0.01991760265082121</v>
       </c>
       <c r="I2">
-        <v>0.04524570517241955</v>
+        <v>0.03524175053462386</v>
       </c>
       <c r="J2">
-        <v>0.04829038586467505</v>
+        <v>0.03035385720431805</v>
       </c>
       <c r="K2">
-        <v>0.001650627236813307</v>
+        <v>0.003551635425537825</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>0.005642358679324389</v>
+        <v>5000</v>
       </c>
       <c r="E3">
-        <v>0.0984417418949306</v>
-      </c>
-      <c r="F3">
-        <v>92</v>
-      </c>
-      <c r="G3">
-        <v>0.004696676507592201</v>
-      </c>
-      <c r="H3">
-        <v>0.01312933582812548</v>
-      </c>
-      <c r="I3">
-        <v>0.03012513322755694</v>
-      </c>
-      <c r="J3">
-        <v>0.04562717536464334</v>
-      </c>
-      <c r="K3">
-        <v>0.001201328355818987</v>
+        <v>0.05731819814536721</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>0.005603535566478968</v>
+        <v>0.01050856290385127</v>
       </c>
       <c r="E4">
-        <v>0.09844950400292873</v>
+        <v>0.1026463052257895</v>
       </c>
       <c r="F4">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="G4">
-        <v>0.004659702535718679</v>
+        <v>0.008229962084442377</v>
       </c>
       <c r="H4">
-        <v>0.0128412302583456</v>
+        <v>0.01991760265082121</v>
       </c>
       <c r="I4">
-        <v>0.03033473715186119</v>
+        <v>0.03524175053462386</v>
       </c>
       <c r="J4">
-        <v>0.04607836995273829</v>
+        <v>0.03035385720431805</v>
       </c>
       <c r="K4">
-        <v>0.001252542715519667</v>
+        <v>0.003551635425537825</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>92</v>
-      </c>
-      <c r="D5">
-        <v>0.0003377888351678848</v>
+        <v>5000</v>
       </c>
       <c r="E5">
-        <v>0.1184397623874247</v>
-      </c>
-      <c r="F5">
-        <v>92</v>
-      </c>
-      <c r="G5">
-        <v>0.007058361079543829</v>
-      </c>
-      <c r="H5">
-        <v>0.00976964458823204</v>
-      </c>
-      <c r="I5">
-        <v>0.04591615637764335</v>
-      </c>
-      <c r="J5">
-        <v>0.04935389989987016</v>
-      </c>
-      <c r="K5">
-        <v>0.001691457349807024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>309</v>
-      </c>
-      <c r="D6">
-        <v>0.01023201225325465</v>
-      </c>
-      <c r="E6">
-        <v>0.837863574270159</v>
-      </c>
-      <c r="F6">
-        <v>309</v>
-      </c>
-      <c r="G6">
-        <v>0.01469816919416189</v>
-      </c>
-      <c r="H6">
-        <v>0.03624324174597859</v>
-      </c>
-      <c r="I6">
-        <v>0.6770740761421621</v>
-      </c>
-      <c r="J6">
-        <v>0.09278821386396885</v>
-      </c>
-      <c r="K6">
-        <v>0.005115187261253595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>0.05731819814536721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>0.0002387175336480141</v>
-      </c>
-      <c r="E8">
-        <v>0.116445688996464</v>
-      </c>
-      <c r="F8">
-        <v>92</v>
-      </c>
-      <c r="G8">
-        <v>0.006972394417971373</v>
-      </c>
-      <c r="H8">
-        <v>0.009754863567650318</v>
-      </c>
-      <c r="I8">
-        <v>0.04524570517241955</v>
-      </c>
-      <c r="J8">
-        <v>0.04829038586467505</v>
-      </c>
-      <c r="K8">
-        <v>0.001650627236813307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <v>0.005642358679324389</v>
-      </c>
-      <c r="E9">
-        <v>0.0984417418949306</v>
-      </c>
-      <c r="F9">
-        <v>92</v>
-      </c>
-      <c r="G9">
-        <v>0.004696676507592201</v>
-      </c>
-      <c r="H9">
-        <v>0.01312933582812548</v>
-      </c>
-      <c r="I9">
-        <v>0.03012513322755694</v>
-      </c>
-      <c r="J9">
-        <v>0.04562717536464334</v>
-      </c>
-      <c r="K9">
-        <v>0.001201328355818987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>92</v>
-      </c>
-      <c r="D10">
-        <v>0.005603535566478968</v>
-      </c>
-      <c r="E10">
-        <v>0.09844950400292873</v>
-      </c>
-      <c r="F10">
-        <v>92</v>
-      </c>
-      <c r="G10">
-        <v>0.004659702535718679</v>
-      </c>
-      <c r="H10">
-        <v>0.0128412302583456</v>
-      </c>
-      <c r="I10">
-        <v>0.03033473715186119</v>
-      </c>
-      <c r="J10">
-        <v>0.04607836995273829</v>
-      </c>
-      <c r="K10">
-        <v>0.001252542715519667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>92</v>
-      </c>
-      <c r="D11">
-        <v>0.0003377888351678848</v>
-      </c>
-      <c r="E11">
-        <v>0.1184397623874247</v>
-      </c>
-      <c r="F11">
-        <v>92</v>
-      </c>
-      <c r="G11">
-        <v>0.007058361079543829</v>
-      </c>
-      <c r="H11">
-        <v>0.00976964458823204</v>
-      </c>
-      <c r="I11">
-        <v>0.04591615637764335</v>
-      </c>
-      <c r="J11">
-        <v>0.04935389989987016</v>
-      </c>
-      <c r="K11">
-        <v>0.001691457349807024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>309</v>
-      </c>
-      <c r="D12">
-        <v>0.01023201225325465</v>
-      </c>
-      <c r="E12">
-        <v>0.837863574270159</v>
-      </c>
-      <c r="F12">
-        <v>309</v>
-      </c>
-      <c r="G12">
-        <v>0.01469816919416189</v>
-      </c>
-      <c r="H12">
-        <v>0.03624324174597859</v>
-      </c>
-      <c r="I12">
-        <v>0.6770740761421621</v>
-      </c>
-      <c r="J12">
-        <v>0.09278821386396885</v>
-      </c>
-      <c r="K12">
-        <v>0.005115187261253595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
         <v>0.05731819814536721</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b15.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b15.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>338</v>
       </c>
       <c r="D2">
+        <v>338</v>
+      </c>
+      <c r="E2">
+        <v>338</v>
+      </c>
+      <c r="F2">
+        <v>338</v>
+      </c>
+      <c r="G2">
+        <v>338</v>
+      </c>
+      <c r="H2">
+        <v>338</v>
+      </c>
+      <c r="I2">
+        <v>338</v>
+      </c>
+      <c r="J2">
+        <v>338</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>0.01050856290385127</v>
+        <v>0.0004763989709317684</v>
       </c>
       <c r="E2">
-        <v>0.1026463052257895</v>
+        <v>0.08739416487514973</v>
       </c>
       <c r="F2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>0.008229962084442377</v>
+        <v>0.008601583074778318</v>
       </c>
       <c r="H2">
-        <v>0.01991760265082121</v>
+        <v>0.009688667953014374</v>
       </c>
       <c r="I2">
-        <v>0.03524175053462386</v>
+        <v>0.02919144602492452</v>
       </c>
       <c r="J2">
-        <v>0.03035385720431805</v>
+        <v>0.03048772690817714</v>
       </c>
       <c r="K2">
-        <v>0.003551635425537825</v>
+        <v>0.003723164089024067</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>142</v>
+      </c>
+      <c r="D3">
+        <v>0.01173483906313777</v>
       </c>
       <c r="E3">
-        <v>0.05731819814536721</v>
+        <v>0.1135061667300761</v>
+      </c>
+      <c r="F3">
+        <v>142</v>
+      </c>
+      <c r="G3">
+        <v>0.008668425492942333</v>
+      </c>
+      <c r="H3">
+        <v>0.02242335956543684</v>
+      </c>
+      <c r="I3">
+        <v>0.03788226190954447</v>
+      </c>
+      <c r="J3">
+        <v>0.03441927954554558</v>
+      </c>
+      <c r="K3">
+        <v>0.004015723709017038</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>0.01050856290385127</v>
+        <v>0.01000763103365898</v>
       </c>
       <c r="E4">
-        <v>0.1026463052257895</v>
+        <v>0.1159095419570804</v>
       </c>
       <c r="F4">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="G4">
-        <v>0.008229962084442377</v>
+        <v>0.008900427259504795</v>
       </c>
       <c r="H4">
-        <v>0.01991760265082121</v>
+        <v>0.0192201198078692</v>
       </c>
       <c r="I4">
-        <v>0.03524175053462386</v>
+        <v>0.02980900881811976</v>
       </c>
       <c r="J4">
-        <v>0.03035385720431805</v>
+        <v>0.04878587601706386</v>
       </c>
       <c r="K4">
-        <v>0.003551635425537825</v>
+        <v>0.003715131897479296</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>0.0003208164125680923</v>
+      </c>
+      <c r="E5">
+        <v>0.07799706980586052</v>
+      </c>
+      <c r="F5">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>0.008833203930407763</v>
+      </c>
+      <c r="H5">
+        <v>0.009065777529031038</v>
+      </c>
+      <c r="I5">
+        <v>0.029179563280195</v>
+      </c>
+      <c r="J5">
+        <v>0.02235293434932828</v>
+      </c>
+      <c r="K5">
+        <v>0.003397892229259014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>309</v>
+      </c>
+      <c r="D6">
+        <v>0.001305484212934971</v>
+      </c>
+      <c r="E6">
+        <v>0.3311948222108185</v>
+      </c>
+      <c r="F6">
+        <v>309</v>
+      </c>
+      <c r="G6">
+        <v>0.01590597443282604</v>
+      </c>
+      <c r="H6">
+        <v>0.02170689404010773</v>
+      </c>
+      <c r="I6">
+        <v>0.2422362896613777</v>
+      </c>
+      <c r="J6">
+        <v>0.0312804956920445</v>
+      </c>
+      <c r="K6">
+        <v>0.008623040746897459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1386</v>
+      </c>
+      <c r="D7">
+        <v>0.04125334322452545</v>
+      </c>
+      <c r="E7">
+        <v>2.278733666986227</v>
+      </c>
+      <c r="F7">
+        <v>1386</v>
+      </c>
+      <c r="G7">
+        <v>0.07080283993855119</v>
+      </c>
+      <c r="H7">
+        <v>0.1368683511391282</v>
+      </c>
+      <c r="I7">
+        <v>1.808244107291102</v>
+      </c>
+      <c r="J7">
+        <v>0.1661149533465505</v>
+      </c>
+      <c r="K7">
+        <v>0.04102453729137778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>309</v>
+      </c>
+      <c r="D8">
+        <v>0.01255668932572007</v>
+      </c>
+      <c r="E8">
+        <v>0.3952273651957512</v>
+      </c>
+      <c r="F8">
+        <v>309</v>
+      </c>
+      <c r="G8">
+        <v>0.01548458123579621</v>
+      </c>
+      <c r="H8">
+        <v>0.03564929077401757</v>
+      </c>
+      <c r="I8">
+        <v>0.2544185291044414</v>
+      </c>
+      <c r="J8">
+        <v>0.06977373315021396</v>
+      </c>
+      <c r="K8">
+        <v>0.008534797932952642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>309</v>
+      </c>
+      <c r="D9">
+        <v>0.001867997460067272</v>
+      </c>
+      <c r="E9">
+        <v>0.3918311879970133</v>
+      </c>
+      <c r="F9">
+        <v>309</v>
+      </c>
+      <c r="G9">
+        <v>0.01940560713410378</v>
+      </c>
+      <c r="H9">
+        <v>0.02839189069345593</v>
+      </c>
+      <c r="I9">
+        <v>0.2822381732985377</v>
+      </c>
+      <c r="J9">
+        <v>0.03683954197913408</v>
+      </c>
+      <c r="K9">
+        <v>0.01066303299739957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>5000</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.05731819814536721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>0.0004763989709317684</v>
+      </c>
+      <c r="E11">
+        <v>0.08739416487514973</v>
+      </c>
+      <c r="F11">
+        <v>92</v>
+      </c>
+      <c r="G11">
+        <v>0.008601583074778318</v>
+      </c>
+      <c r="H11">
+        <v>0.009688667953014374</v>
+      </c>
+      <c r="I11">
+        <v>0.02919144602492452</v>
+      </c>
+      <c r="J11">
+        <v>0.03048772690817714</v>
+      </c>
+      <c r="K11">
+        <v>0.003723164089024067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+      <c r="D12">
+        <v>0.01173483906313777</v>
+      </c>
+      <c r="E12">
+        <v>0.1135061667300761</v>
+      </c>
+      <c r="F12">
+        <v>142</v>
+      </c>
+      <c r="G12">
+        <v>0.008668425492942333</v>
+      </c>
+      <c r="H12">
+        <v>0.02242335956543684</v>
+      </c>
+      <c r="I12">
+        <v>0.03788226190954447</v>
+      </c>
+      <c r="J12">
+        <v>0.03441927954554558</v>
+      </c>
+      <c r="K12">
+        <v>0.004015723709017038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>0.01000763103365898</v>
+      </c>
+      <c r="E13">
+        <v>0.1159095419570804</v>
+      </c>
+      <c r="F13">
+        <v>92</v>
+      </c>
+      <c r="G13">
+        <v>0.008900427259504795</v>
+      </c>
+      <c r="H13">
+        <v>0.0192201198078692</v>
+      </c>
+      <c r="I13">
+        <v>0.02980900881811976</v>
+      </c>
+      <c r="J13">
+        <v>0.04878587601706386</v>
+      </c>
+      <c r="K13">
+        <v>0.003715131897479296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>0.0003208164125680923</v>
+      </c>
+      <c r="E14">
+        <v>0.07799706980586052</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>0.008833203930407763</v>
+      </c>
+      <c r="H14">
+        <v>0.009065777529031038</v>
+      </c>
+      <c r="I14">
+        <v>0.029179563280195</v>
+      </c>
+      <c r="J14">
+        <v>0.02235293434932828</v>
+      </c>
+      <c r="K14">
+        <v>0.003397892229259014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>309</v>
+      </c>
+      <c r="D15">
+        <v>0.001305484212934971</v>
+      </c>
+      <c r="E15">
+        <v>0.3311948222108185</v>
+      </c>
+      <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
+        <v>0.01590597443282604</v>
+      </c>
+      <c r="H15">
+        <v>0.02170689404010773</v>
+      </c>
+      <c r="I15">
+        <v>0.2422362896613777</v>
+      </c>
+      <c r="J15">
+        <v>0.0312804956920445</v>
+      </c>
+      <c r="K15">
+        <v>0.008623040746897459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1386</v>
+      </c>
+      <c r="D16">
+        <v>0.04125334322452545</v>
+      </c>
+      <c r="E16">
+        <v>2.278733666986227</v>
+      </c>
+      <c r="F16">
+        <v>1386</v>
+      </c>
+      <c r="G16">
+        <v>0.07080283993855119</v>
+      </c>
+      <c r="H16">
+        <v>0.1368683511391282</v>
+      </c>
+      <c r="I16">
+        <v>1.808244107291102</v>
+      </c>
+      <c r="J16">
+        <v>0.1661149533465505</v>
+      </c>
+      <c r="K16">
+        <v>0.04102453729137778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>309</v>
+      </c>
+      <c r="D17">
+        <v>0.01255668932572007</v>
+      </c>
+      <c r="E17">
+        <v>0.3952273651957512</v>
+      </c>
+      <c r="F17">
+        <v>309</v>
+      </c>
+      <c r="G17">
+        <v>0.01548458123579621</v>
+      </c>
+      <c r="H17">
+        <v>0.03564929077401757</v>
+      </c>
+      <c r="I17">
+        <v>0.2544185291044414</v>
+      </c>
+      <c r="J17">
+        <v>0.06977373315021396</v>
+      </c>
+      <c r="K17">
+        <v>0.008534797932952642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>309</v>
+      </c>
+      <c r="D18">
+        <v>0.001867997460067272</v>
+      </c>
+      <c r="E18">
+        <v>0.3918311879970133</v>
+      </c>
+      <c r="F18">
+        <v>309</v>
+      </c>
+      <c r="G18">
+        <v>0.01940560713410378</v>
+      </c>
+      <c r="H18">
+        <v>0.02839189069345593</v>
+      </c>
+      <c r="I18">
+        <v>0.2822381732985377</v>
+      </c>
+      <c r="J18">
+        <v>0.03683954197913408</v>
+      </c>
+      <c r="K18">
+        <v>0.01066303299739957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
         <v>0.05731819814536721</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
